--- a/ConfigData/Xlsx/CardPieceType.xlsx
+++ b/ConfigData/Xlsx/CardPieceType.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fish\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="CardPieceType" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -55,6 +55,26 @@
   </si>
   <si>
     <t>序列</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropStarMin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropStarMax</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小掉落星级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大掉落星级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -730,74 +750,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -810,12 +762,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30"/>
+  <tableColumns count="6">
     <tableColumn id="4" name="Id"/>
     <tableColumn id="1" name="Tid"/>
     <tableColumn id="2" name="Level"/>
+    <tableColumn id="5" name="DropStarMin"/>
+    <tableColumn id="6" name="DropStarMax"/>
     <tableColumn id="3" name="ItemId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -830,7 +784,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1109,19 +1063,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1132,10 +1086,16 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,10 +1106,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,10 +1126,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1175,10 +1147,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>22018001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A30" si="0">ROW()-3</f>
         <v>2</v>
@@ -1190,10 +1168,16 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>22018002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1205,10 +1189,16 @@
         <v>6</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>22018003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1220,10 +1210,16 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>22018011</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1235,10 +1231,16 @@
         <v>4</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>22018012</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1250,10 +1252,16 @@
         <v>6</v>
       </c>
       <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>22018013</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1265,10 +1273,16 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
         <v>22018021</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1280,10 +1294,16 @@
         <v>4</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
         <v>22018022</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1295,10 +1315,16 @@
         <v>6</v>
       </c>
       <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>22018023</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1310,10 +1336,16 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>22018031</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1325,10 +1357,16 @@
         <v>4</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
         <v>22018032</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1340,10 +1378,16 @@
         <v>6</v>
       </c>
       <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>22018033</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1355,10 +1399,16 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
         <v>22018041</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1370,10 +1420,16 @@
         <v>4</v>
       </c>
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
         <v>22018042</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1385,10 +1441,16 @@
         <v>6</v>
       </c>
       <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
         <v>22018043</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1400,10 +1462,16 @@
         <v>2</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>22018051</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1415,10 +1483,16 @@
         <v>4</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <v>22018052</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1430,10 +1504,16 @@
         <v>6</v>
       </c>
       <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
         <v>22018053</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1445,10 +1525,16 @@
         <v>2</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
         <v>22018061</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1460,10 +1546,16 @@
         <v>4</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
         <v>22018062</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1475,10 +1567,16 @@
         <v>6</v>
       </c>
       <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <v>22018063</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1490,10 +1588,16 @@
         <v>2</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
         <v>22018071</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1505,10 +1609,16 @@
         <v>4</v>
       </c>
       <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
         <v>22018072</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1520,10 +1630,16 @@
         <v>6</v>
       </c>
       <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>22018073</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1535,10 +1651,16 @@
         <v>2</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
         <v>22018081</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1550,10 +1672,16 @@
         <v>4</v>
       </c>
       <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
         <v>22018082</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1565,6 +1693,12 @@
         <v>6</v>
       </c>
       <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>22018083</v>
       </c>
     </row>
